--- a/Geant_simulation/data/detector_efficiency/calib s13360-6050pe.xlsx
+++ b/Geant_simulation/data/detector_efficiency/calib s13360-6050pe.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="v1" sheetId="1" r:id="rId1"/>
+    <sheet name="v2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>x pix</t>
   </si>
@@ -50,6 +51,18 @@
   </si>
   <si>
     <t>eff</t>
+  </si>
+  <si>
+    <t>wavelength (nm)</t>
+  </si>
+  <si>
+    <t>PDE 48V, Overvoltage=5.6 Right</t>
+  </si>
+  <si>
+    <t>E, eV</t>
+  </si>
+  <si>
+    <t>PDE 46V, Overvoltage=3.6 Right</t>
   </si>
 </sst>
 </file>
@@ -245,7 +258,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$8</c:f>
+              <c:f>'v1'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -275,7 +288,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$8</c:f>
+              <c:f>'v1'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -313,11 +326,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="154313360"/>
-        <c:axId val="227950280"/>
+        <c:axId val="444327304"/>
+        <c:axId val="444327696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="154313360"/>
+        <c:axId val="444327304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -374,12 +387,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227950280"/>
+        <c:crossAx val="444327696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="227950280"/>
+        <c:axId val="444327696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -436,7 +449,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="154313360"/>
+        <c:crossAx val="444327304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -612,7 +625,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$M$2:$M$5</c:f>
+              <c:f>'v1'!$M$2:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -633,7 +646,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$N$2:$N$5</c:f>
+              <c:f>'v1'!$N$2:$N$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -662,11 +675,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="227951064"/>
-        <c:axId val="227951456"/>
+        <c:axId val="444328480"/>
+        <c:axId val="571200104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="227951064"/>
+        <c:axId val="444328480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -723,12 +736,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227951456"/>
+        <c:crossAx val="571200104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="227951456"/>
+        <c:axId val="571200104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -785,7 +798,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227951064"/>
+        <c:crossAx val="444328480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -912,7 +925,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$D$24:$D$84</c:f>
+              <c:f>'v1'!$D$24:$D$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -1104,7 +1117,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$E$24:$E$84</c:f>
+              <c:f>'v1'!$E$24:$E$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -1304,11 +1317,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="227952240"/>
-        <c:axId val="227952632"/>
+        <c:axId val="571200888"/>
+        <c:axId val="571201280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="227952240"/>
+        <c:axId val="571200888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1365,12 +1378,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227952632"/>
+        <c:crossAx val="571201280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="227952632"/>
+        <c:axId val="571201280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1427,7 +1440,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227952240"/>
+        <c:crossAx val="571200888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1554,7 +1567,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$L$25:$L$88</c:f>
+              <c:f>'v1'!$L$25:$L$88</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="64"/>
@@ -1755,7 +1768,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$M$25:$M$88</c:f>
+              <c:f>'v1'!$M$25:$M$88</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="64"/>
@@ -1964,11 +1977,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="227953416"/>
-        <c:axId val="227953808"/>
+        <c:axId val="571202064"/>
+        <c:axId val="571202456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="227953416"/>
+        <c:axId val="571202064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2025,12 +2038,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227953808"/>
+        <c:crossAx val="571202456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="227953808"/>
+        <c:axId val="571202456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2087,7 +2100,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227953416"/>
+        <c:crossAx val="571202064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4774,8 +4787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6806,4 +6819,2067 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="29.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>1240/A3</f>
+        <v>6.2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <f>E3*0.5/0.55</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>6.2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>210</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D67" si="0">1240/A4</f>
+        <v>5.9047619047619051</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F67" si="1">E4*0.5/0.55</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>5.9047619047619051</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>220</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>5.6363636363636367</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>5.6363636363636367</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>230</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>5.3913043478260869</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>5.3913043478260869</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>240</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>5.166666666666667</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>250</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4.96</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.96</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>260</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>4.7692307692307692</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.7692307692307692</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>270</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>4.5925925925925926</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.5925925925925926</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>280</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>4.4285714285714288</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.4285714285714288</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>290</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>4.2758620689655169</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.2758620689655169</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>300</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>4.1333333333333337</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.1333333333333337</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>310</v>
+      </c>
+      <c r="B14">
+        <v>1.652E-2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>1.652E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5018181818181818E-2</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>1.652E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>320</v>
+      </c>
+      <c r="B15">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>3.875</v>
+      </c>
+      <c r="E15">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>3.7545454545454549E-2</v>
+      </c>
+      <c r="H15">
+        <v>3.875</v>
+      </c>
+      <c r="I15">
+        <v>4.1300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>330</v>
+      </c>
+      <c r="B16">
+        <v>9.7739999999999994E-2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>3.7575757575757578</v>
+      </c>
+      <c r="E16">
+        <v>9.7739999999999994E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
+        <v>8.8854545454545436E-2</v>
+      </c>
+      <c r="H16">
+        <v>3.7575757575757578</v>
+      </c>
+      <c r="I16">
+        <v>9.7739999999999994E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>340</v>
+      </c>
+      <c r="B17">
+        <v>0.19686000000000001</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>3.6470588235294117</v>
+      </c>
+      <c r="E17">
+        <v>0.19686000000000001</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.17896363636363635</v>
+      </c>
+      <c r="H17">
+        <v>3.6470588235294117</v>
+      </c>
+      <c r="I17">
+        <v>0.19686000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>350</v>
+      </c>
+      <c r="B18">
+        <v>0.29047000000000001</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>3.5428571428571427</v>
+      </c>
+      <c r="E18">
+        <v>0.29047000000000001</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.26406363636363633</v>
+      </c>
+      <c r="H18">
+        <v>3.5428571428571427</v>
+      </c>
+      <c r="I18">
+        <v>0.29047000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>360</v>
+      </c>
+      <c r="B19">
+        <v>0.33727000000000001</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>3.4444444444444446</v>
+      </c>
+      <c r="E19">
+        <v>0.33727000000000001</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.30660909090909089</v>
+      </c>
+      <c r="H19">
+        <v>3.4444444444444446</v>
+      </c>
+      <c r="I19">
+        <v>0.33727000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>370</v>
+      </c>
+      <c r="B20">
+        <v>0.37857000000000002</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>3.3513513513513513</v>
+      </c>
+      <c r="E20">
+        <v>0.37857000000000002</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.34415454545454544</v>
+      </c>
+      <c r="H20">
+        <v>3.3513513513513513</v>
+      </c>
+      <c r="I20">
+        <v>0.37857000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>380</v>
+      </c>
+      <c r="B21">
+        <v>0.43087999999999999</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>3.263157894736842</v>
+      </c>
+      <c r="E21">
+        <v>0.43087999999999999</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.39170909090909084</v>
+      </c>
+      <c r="H21">
+        <v>3.263157894736842</v>
+      </c>
+      <c r="I21">
+        <v>0.43087999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>390</v>
+      </c>
+      <c r="B22">
+        <v>0.46392</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>3.1794871794871793</v>
+      </c>
+      <c r="E22">
+        <v>0.46392</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.42174545454545453</v>
+      </c>
+      <c r="H22">
+        <v>3.1794871794871793</v>
+      </c>
+      <c r="I22">
+        <v>0.46392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>400</v>
+      </c>
+      <c r="B23">
+        <v>0.49008000000000002</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>3.1</v>
+      </c>
+      <c r="E23">
+        <v>0.49008000000000002</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.44552727272727272</v>
+      </c>
+      <c r="H23">
+        <v>3.1</v>
+      </c>
+      <c r="I23">
+        <v>0.49008000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>410</v>
+      </c>
+      <c r="B24">
+        <v>0.50934999999999997</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>3.024390243902439</v>
+      </c>
+      <c r="E24">
+        <v>0.50934999999999997</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.46304545454545448</v>
+      </c>
+      <c r="H24">
+        <v>3.024390243902439</v>
+      </c>
+      <c r="I24">
+        <v>0.50934999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>420</v>
+      </c>
+      <c r="B25">
+        <v>0.52310999999999996</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>2.9523809523809526</v>
+      </c>
+      <c r="E25">
+        <v>0.52310999999999996</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4755545454545454</v>
+      </c>
+      <c r="H25">
+        <v>2.9523809523809526</v>
+      </c>
+      <c r="I25">
+        <v>0.52310999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>430</v>
+      </c>
+      <c r="B26">
+        <v>0.53688000000000002</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>2.8837209302325579</v>
+      </c>
+      <c r="E26">
+        <v>0.53688000000000002</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="1"/>
+        <v>0.48807272727272727</v>
+      </c>
+      <c r="H26">
+        <v>2.8837209302325579</v>
+      </c>
+      <c r="I26">
+        <v>0.53688000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>440</v>
+      </c>
+      <c r="B27">
+        <v>0.54376000000000002</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>2.8181818181818183</v>
+      </c>
+      <c r="E27">
+        <v>0.54376000000000002</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="1"/>
+        <v>0.49432727272727273</v>
+      </c>
+      <c r="H27">
+        <v>2.8181818181818183</v>
+      </c>
+      <c r="I27">
+        <v>0.54376000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>450</v>
+      </c>
+      <c r="B28">
+        <v>0.54788999999999999</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>2.7555555555555555</v>
+      </c>
+      <c r="E28">
+        <v>0.54788999999999999</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="1"/>
+        <v>0.49808181818181813</v>
+      </c>
+      <c r="H28">
+        <v>2.7555555555555555</v>
+      </c>
+      <c r="I28">
+        <v>0.54788999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>460</v>
+      </c>
+      <c r="B29">
+        <v>0.5534</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>2.6956521739130435</v>
+      </c>
+      <c r="E29">
+        <v>0.5534</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="1"/>
+        <v>0.50309090909090903</v>
+      </c>
+      <c r="H29">
+        <v>2.6956521739130435</v>
+      </c>
+      <c r="I29">
+        <v>0.5534</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>470</v>
+      </c>
+      <c r="B30">
+        <v>0.55064999999999997</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>2.6382978723404253</v>
+      </c>
+      <c r="E30">
+        <v>0.55064999999999997</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="1"/>
+        <v>0.50059090909090898</v>
+      </c>
+      <c r="H30">
+        <v>2.6382978723404253</v>
+      </c>
+      <c r="I30">
+        <v>0.55064999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>480</v>
+      </c>
+      <c r="B31">
+        <v>0.54652000000000001</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>2.5833333333333335</v>
+      </c>
+      <c r="E31">
+        <v>0.54652000000000001</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="1"/>
+        <v>0.49683636363636358</v>
+      </c>
+      <c r="H31">
+        <v>2.5833333333333335</v>
+      </c>
+      <c r="I31">
+        <v>0.54652000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>490</v>
+      </c>
+      <c r="B32">
+        <v>0.54100999999999999</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>2.5306122448979593</v>
+      </c>
+      <c r="E32">
+        <v>0.54100999999999999</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="1"/>
+        <v>0.49182727272727267</v>
+      </c>
+      <c r="H32">
+        <v>2.5306122448979593</v>
+      </c>
+      <c r="I32">
+        <v>0.54100999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>500</v>
+      </c>
+      <c r="B33">
+        <v>0.53274999999999995</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>2.48</v>
+      </c>
+      <c r="E33">
+        <v>0.53274999999999995</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4843181818181817</v>
+      </c>
+      <c r="H33">
+        <v>2.48</v>
+      </c>
+      <c r="I33">
+        <v>0.53274999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>510</v>
+      </c>
+      <c r="B34">
+        <v>0.52036000000000004</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>2.4313725490196076</v>
+      </c>
+      <c r="E34">
+        <v>0.52036000000000004</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="1"/>
+        <v>0.47305454545454545</v>
+      </c>
+      <c r="H34">
+        <v>2.4313725490196076</v>
+      </c>
+      <c r="I34">
+        <v>0.52036000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>520</v>
+      </c>
+      <c r="B35">
+        <v>0.50522</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>2.3846153846153846</v>
+      </c>
+      <c r="E35">
+        <v>0.50522</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="1"/>
+        <v>0.45929090909090908</v>
+      </c>
+      <c r="H35">
+        <v>2.3846153846153846</v>
+      </c>
+      <c r="I35">
+        <v>0.50522</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>530</v>
+      </c>
+      <c r="B36">
+        <v>0.48870000000000002</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>2.3396226415094339</v>
+      </c>
+      <c r="E36">
+        <v>0.48870000000000002</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="1"/>
+        <v>0.44427272727272726</v>
+      </c>
+      <c r="H36">
+        <v>2.3396226415094339</v>
+      </c>
+      <c r="I36">
+        <v>0.48870000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>540</v>
+      </c>
+      <c r="B37">
+        <v>0.47217999999999999</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>2.2962962962962963</v>
+      </c>
+      <c r="E37">
+        <v>0.47217999999999999</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="1"/>
+        <v>0.42925454545454539</v>
+      </c>
+      <c r="H37">
+        <v>2.2962962962962963</v>
+      </c>
+      <c r="I37">
+        <v>0.47217999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>550</v>
+      </c>
+      <c r="B38">
+        <v>0.45290999999999998</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>2.2545454545454544</v>
+      </c>
+      <c r="E38">
+        <v>0.45290999999999998</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="1"/>
+        <v>0.41173636363636357</v>
+      </c>
+      <c r="H38">
+        <v>2.2545454545454544</v>
+      </c>
+      <c r="I38">
+        <v>0.45290999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>560</v>
+      </c>
+      <c r="B39">
+        <v>0.43639</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>2.2142857142857144</v>
+      </c>
+      <c r="E39">
+        <v>0.43639</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="1"/>
+        <v>0.3967181818181818</v>
+      </c>
+      <c r="H39">
+        <v>2.2142857142857144</v>
+      </c>
+      <c r="I39">
+        <v>0.43639</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>570</v>
+      </c>
+      <c r="B40">
+        <v>0.41698000000000002</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>2.1754385964912282</v>
+      </c>
+      <c r="E40">
+        <v>0.41698000000000002</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="1"/>
+        <v>0.37907272727272728</v>
+      </c>
+      <c r="H40">
+        <v>2.1754385964912282</v>
+      </c>
+      <c r="I40">
+        <v>0.41698000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>580</v>
+      </c>
+      <c r="B41">
+        <v>0.39784000000000003</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>2.1379310344827585</v>
+      </c>
+      <c r="E41">
+        <v>0.39784000000000003</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="1"/>
+        <v>0.36167272727272726</v>
+      </c>
+      <c r="H41">
+        <v>2.1379310344827585</v>
+      </c>
+      <c r="I41">
+        <v>0.39784000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>590</v>
+      </c>
+      <c r="B42">
+        <v>0.37857000000000002</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>2.1016949152542375</v>
+      </c>
+      <c r="E42">
+        <v>0.37857000000000002</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="1"/>
+        <v>0.34415454545454544</v>
+      </c>
+      <c r="H42">
+        <v>2.1016949152542375</v>
+      </c>
+      <c r="I42">
+        <v>0.37857000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>600</v>
+      </c>
+      <c r="B43">
+        <v>0.36066999999999999</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>2.0666666666666669</v>
+      </c>
+      <c r="E43">
+        <v>0.36066999999999999</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="1"/>
+        <v>0.32788181818181816</v>
+      </c>
+      <c r="H43">
+        <v>2.0666666666666669</v>
+      </c>
+      <c r="I43">
+        <v>0.36066999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>610</v>
+      </c>
+      <c r="B44">
+        <v>0.34827999999999998</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>2.0327868852459017</v>
+      </c>
+      <c r="E44">
+        <v>0.34827999999999998</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="1"/>
+        <v>0.3166181818181818</v>
+      </c>
+      <c r="H44">
+        <v>2.0327868852459017</v>
+      </c>
+      <c r="I44">
+        <v>0.34827999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>620</v>
+      </c>
+      <c r="B45">
+        <v>0.33039000000000002</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>0.33039000000000002</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="1"/>
+        <v>0.30035454545454543</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>0.33039000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>630</v>
+      </c>
+      <c r="B46">
+        <v>0.30836000000000002</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>1.9682539682539681</v>
+      </c>
+      <c r="E46">
+        <v>0.30836000000000002</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="1"/>
+        <v>0.2803272727272727</v>
+      </c>
+      <c r="H46">
+        <v>1.9682539682539681</v>
+      </c>
+      <c r="I46">
+        <v>0.30836000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>640</v>
+      </c>
+      <c r="B47">
+        <v>0.28909000000000001</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>1.9375</v>
+      </c>
+      <c r="E47">
+        <v>0.28909000000000001</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="1"/>
+        <v>0.26280909090909088</v>
+      </c>
+      <c r="H47">
+        <v>1.9375</v>
+      </c>
+      <c r="I47">
+        <v>0.28909000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>650</v>
+      </c>
+      <c r="B48">
+        <v>0.27395000000000003</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>1.9076923076923078</v>
+      </c>
+      <c r="E48">
+        <v>0.27395000000000003</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="1"/>
+        <v>0.24904545454545454</v>
+      </c>
+      <c r="H48">
+        <v>1.9076923076923078</v>
+      </c>
+      <c r="I48">
+        <v>0.27395000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>660</v>
+      </c>
+      <c r="B49">
+        <v>0.26018000000000002</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>1.8787878787878789</v>
+      </c>
+      <c r="E49">
+        <v>0.26018000000000002</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="1"/>
+        <v>0.23652727272727272</v>
+      </c>
+      <c r="H49">
+        <v>1.8787878787878789</v>
+      </c>
+      <c r="I49">
+        <v>0.26018000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>670</v>
+      </c>
+      <c r="B50">
+        <v>0.24504000000000001</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>1.8507462686567164</v>
+      </c>
+      <c r="E50">
+        <v>0.24504000000000001</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="1"/>
+        <v>0.22276363636363636</v>
+      </c>
+      <c r="H50">
+        <v>1.8507462686567164</v>
+      </c>
+      <c r="I50">
+        <v>0.24504000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>680</v>
+      </c>
+      <c r="B51">
+        <v>0.23265</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>1.8235294117647058</v>
+      </c>
+      <c r="E51">
+        <v>0.23265</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="1"/>
+        <v>0.21149999999999997</v>
+      </c>
+      <c r="H51">
+        <v>1.8235294117647058</v>
+      </c>
+      <c r="I51">
+        <v>0.23265</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>690</v>
+      </c>
+      <c r="B52">
+        <v>0.22026000000000001</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>1.7971014492753623</v>
+      </c>
+      <c r="E52">
+        <v>0.22026000000000001</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="1"/>
+        <v>0.20023636363636363</v>
+      </c>
+      <c r="H52">
+        <v>1.7971014492753623</v>
+      </c>
+      <c r="I52">
+        <v>0.22026000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>700</v>
+      </c>
+      <c r="B53">
+        <v>0.20649000000000001</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>1.7714285714285714</v>
+      </c>
+      <c r="E53">
+        <v>0.20649000000000001</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="1"/>
+        <v>0.18771818181818181</v>
+      </c>
+      <c r="H53">
+        <v>1.7714285714285714</v>
+      </c>
+      <c r="I53">
+        <v>0.20649000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>710</v>
+      </c>
+      <c r="B54">
+        <v>0.19822999999999999</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>1.7464788732394365</v>
+      </c>
+      <c r="E54">
+        <v>0.19822999999999999</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="1"/>
+        <v>0.18020909090909087</v>
+      </c>
+      <c r="H54">
+        <v>1.7464788732394365</v>
+      </c>
+      <c r="I54">
+        <v>0.19822999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>720</v>
+      </c>
+      <c r="B55">
+        <v>0.18653</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>1.7222222222222223</v>
+      </c>
+      <c r="E55">
+        <v>0.18653</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16957272727272726</v>
+      </c>
+      <c r="H55">
+        <v>1.7222222222222223</v>
+      </c>
+      <c r="I55">
+        <v>0.18653</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>730</v>
+      </c>
+      <c r="B56">
+        <v>0.17621000000000001</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>1.6986301369863013</v>
+      </c>
+      <c r="E56">
+        <v>0.17621000000000001</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="1"/>
+        <v>0.16019090909090908</v>
+      </c>
+      <c r="H56">
+        <v>1.6986301369863013</v>
+      </c>
+      <c r="I56">
+        <v>0.17621000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>740</v>
+      </c>
+      <c r="B57">
+        <v>0.16519</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>1.6756756756756757</v>
+      </c>
+      <c r="E57">
+        <v>0.16519</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15017272727272726</v>
+      </c>
+      <c r="H57">
+        <v>1.6756756756756757</v>
+      </c>
+      <c r="I57">
+        <v>0.16519</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>750</v>
+      </c>
+      <c r="B58">
+        <v>0.15556</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>1.6533333333333333</v>
+      </c>
+      <c r="E58">
+        <v>0.15556</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1414181818181818</v>
+      </c>
+      <c r="H58">
+        <v>1.6533333333333333</v>
+      </c>
+      <c r="I58">
+        <v>0.15556</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>760</v>
+      </c>
+      <c r="B59">
+        <v>0.14729999999999999</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>1.631578947368421</v>
+      </c>
+      <c r="E59">
+        <v>0.14729999999999999</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="1"/>
+        <v>0.13390909090909089</v>
+      </c>
+      <c r="H59">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="I59">
+        <v>0.14729999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>770</v>
+      </c>
+      <c r="B60">
+        <v>0.13766</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>1.6103896103896105</v>
+      </c>
+      <c r="E60">
+        <v>0.13766</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12514545454545453</v>
+      </c>
+      <c r="H60">
+        <v>1.6103896103896105</v>
+      </c>
+      <c r="I60">
+        <v>0.13766</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>780</v>
+      </c>
+      <c r="B61">
+        <v>0.12665000000000001</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>1.5897435897435896</v>
+      </c>
+      <c r="E61">
+        <v>0.12665000000000001</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11513636363636363</v>
+      </c>
+      <c r="H61">
+        <v>1.5897435897435896</v>
+      </c>
+      <c r="I61">
+        <v>0.12665000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>790</v>
+      </c>
+      <c r="B62">
+        <v>0.11977</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>1.5696202531645569</v>
+      </c>
+      <c r="E62">
+        <v>0.11977</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10888181818181818</v>
+      </c>
+      <c r="H62">
+        <v>1.5696202531645569</v>
+      </c>
+      <c r="I62">
+        <v>0.11977</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>800</v>
+      </c>
+      <c r="B63">
+        <v>0.11151</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>1.55</v>
+      </c>
+      <c r="E63">
+        <v>0.11151</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10137272727272727</v>
+      </c>
+      <c r="H63">
+        <v>1.55</v>
+      </c>
+      <c r="I63">
+        <v>0.11151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>810</v>
+      </c>
+      <c r="B64">
+        <v>0.10462</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>1.5308641975308641</v>
+      </c>
+      <c r="E64">
+        <v>0.10462</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="1"/>
+        <v>9.5109090909090907E-2</v>
+      </c>
+      <c r="H64">
+        <v>1.5308641975308641</v>
+      </c>
+      <c r="I64">
+        <v>0.10462</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>820</v>
+      </c>
+      <c r="B65">
+        <v>9.912E-2</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>1.5121951219512195</v>
+      </c>
+      <c r="E65">
+        <v>9.912E-2</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="1"/>
+        <v>9.0109090909090903E-2</v>
+      </c>
+      <c r="H65">
+        <v>1.5121951219512195</v>
+      </c>
+      <c r="I65">
+        <v>9.912E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>830</v>
+      </c>
+      <c r="B66">
+        <v>8.9480000000000004E-2</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>1.4939759036144578</v>
+      </c>
+      <c r="E66">
+        <v>8.9480000000000004E-2</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="1"/>
+        <v>8.134545454545454E-2</v>
+      </c>
+      <c r="H66">
+        <v>1.4939759036144578</v>
+      </c>
+      <c r="I66">
+        <v>8.9480000000000004E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>840</v>
+      </c>
+      <c r="B67">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="0"/>
+        <v>1.4761904761904763</v>
+      </c>
+      <c r="E67">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" si="1"/>
+        <v>7.5090909090909097E-2</v>
+      </c>
+      <c r="H67">
+        <v>1.4761904761904763</v>
+      </c>
+      <c r="I67">
+        <v>8.2600000000000007E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>850</v>
+      </c>
+      <c r="B68">
+        <v>7.7090000000000006E-2</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68:D83" si="2">1240/A68</f>
+        <v>1.4588235294117646</v>
+      </c>
+      <c r="E68">
+        <v>7.7090000000000006E-2</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" ref="F68:F83" si="3">E68*0.5/0.55</f>
+        <v>7.0081818181818176E-2</v>
+      </c>
+      <c r="H68">
+        <v>1.4588235294117646</v>
+      </c>
+      <c r="I68">
+        <v>7.7090000000000006E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>860</v>
+      </c>
+      <c r="B69">
+        <v>7.0209999999999995E-2</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="2"/>
+        <v>1.441860465116279</v>
+      </c>
+      <c r="E69">
+        <v>7.0209999999999995E-2</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="3"/>
+        <v>6.3827272727272719E-2</v>
+      </c>
+      <c r="H69">
+        <v>1.441860465116279</v>
+      </c>
+      <c r="I69">
+        <v>7.0209999999999995E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>870</v>
+      </c>
+      <c r="B70">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="2"/>
+        <v>1.4252873563218391</v>
+      </c>
+      <c r="E70">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="3"/>
+        <v>5.8818181818181804E-2</v>
+      </c>
+      <c r="H70">
+        <v>1.4252873563218391</v>
+      </c>
+      <c r="I70">
+        <v>6.4699999999999994E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>880</v>
+      </c>
+      <c r="B71">
+        <v>5.919E-2</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="2"/>
+        <v>1.4090909090909092</v>
+      </c>
+      <c r="E71">
+        <v>5.919E-2</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="3"/>
+        <v>5.3809090909090904E-2</v>
+      </c>
+      <c r="H71">
+        <v>1.4090909090909092</v>
+      </c>
+      <c r="I71">
+        <v>5.919E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>890</v>
+      </c>
+      <c r="B72">
+        <v>5.2310000000000002E-2</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="2"/>
+        <v>1.3932584269662922</v>
+      </c>
+      <c r="E72">
+        <v>5.2310000000000002E-2</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="3"/>
+        <v>4.7554545454545454E-2</v>
+      </c>
+      <c r="H72">
+        <v>1.3932584269662922</v>
+      </c>
+      <c r="I72">
+        <v>5.2310000000000002E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>900</v>
+      </c>
+      <c r="B73">
+        <v>4.8180000000000001E-2</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="2"/>
+        <v>1.3777777777777778</v>
+      </c>
+      <c r="E73">
+        <v>4.8180000000000001E-2</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="3"/>
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="H73">
+        <v>1.3777777777777778</v>
+      </c>
+      <c r="I73">
+        <v>4.8180000000000001E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>910</v>
+      </c>
+      <c r="B74">
+        <v>4.2659999999999997E-2</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="2"/>
+        <v>1.3626373626373627</v>
+      </c>
+      <c r="E74">
+        <v>4.2659999999999997E-2</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="3"/>
+        <v>3.8781818181818174E-2</v>
+      </c>
+      <c r="H74">
+        <v>1.3626373626373627</v>
+      </c>
+      <c r="I74">
+        <v>4.2659999999999997E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>920</v>
+      </c>
+      <c r="B75">
+        <v>3.7819999999999999E-2</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="2"/>
+        <v>1.3478260869565217</v>
+      </c>
+      <c r="E75">
+        <v>3.7819999999999999E-2</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="3"/>
+        <v>3.438181818181818E-2</v>
+      </c>
+      <c r="H75">
+        <v>1.3478260869565217</v>
+      </c>
+      <c r="I75">
+        <v>3.7819999999999999E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>930</v>
+      </c>
+      <c r="B76">
+        <v>3.3169999999999998E-2</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="2"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E76">
+        <v>3.3169999999999998E-2</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="3"/>
+        <v>3.0154545454545451E-2</v>
+      </c>
+      <c r="H76">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="I76">
+        <v>3.3169999999999998E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>940</v>
+      </c>
+      <c r="B77">
+        <v>2.8719999999999999E-2</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="2"/>
+        <v>1.3191489361702127</v>
+      </c>
+      <c r="E77">
+        <v>2.8719999999999999E-2</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="3"/>
+        <v>2.6109090909090905E-2</v>
+      </c>
+      <c r="H77">
+        <v>1.3191489361702127</v>
+      </c>
+      <c r="I77">
+        <v>2.8719999999999999E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>950</v>
+      </c>
+      <c r="B78">
+        <v>2.445E-2</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="2"/>
+        <v>1.3052631578947369</v>
+      </c>
+      <c r="E78">
+        <v>2.445E-2</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="3"/>
+        <v>2.2227272727272724E-2</v>
+      </c>
+      <c r="H78">
+        <v>1.3052631578947369</v>
+      </c>
+      <c r="I78">
+        <v>2.445E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>960</v>
+      </c>
+      <c r="B79">
+        <v>2.036E-2</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="2"/>
+        <v>1.2916666666666667</v>
+      </c>
+      <c r="E79">
+        <v>2.036E-2</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="3"/>
+        <v>1.8509090909090906E-2</v>
+      </c>
+      <c r="H79">
+        <v>1.2916666666666667</v>
+      </c>
+      <c r="I79">
+        <v>2.036E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>970</v>
+      </c>
+      <c r="B80">
+        <v>1.643E-2</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="2"/>
+        <v>1.2783505154639174</v>
+      </c>
+      <c r="E80">
+        <v>1.643E-2</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4936363636363635E-2</v>
+      </c>
+      <c r="H80">
+        <v>1.2783505154639174</v>
+      </c>
+      <c r="I80">
+        <v>1.643E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>980</v>
+      </c>
+      <c r="B81">
+        <v>1.2670000000000001E-2</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="2"/>
+        <v>1.2653061224489797</v>
+      </c>
+      <c r="E81">
+        <v>1.2670000000000001E-2</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1518181818181818E-2</v>
+      </c>
+      <c r="H81">
+        <v>1.2653061224489797</v>
+      </c>
+      <c r="I81">
+        <v>1.2670000000000001E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>990</v>
+      </c>
+      <c r="B82">
+        <v>9.0600000000000003E-3</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="2"/>
+        <v>1.2525252525252526</v>
+      </c>
+      <c r="E82">
+        <v>9.0600000000000003E-3</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" si="3"/>
+        <v>8.2363636363636354E-3</v>
+      </c>
+      <c r="H82">
+        <v>1.2525252525252526</v>
+      </c>
+      <c r="I82">
+        <v>9.0600000000000003E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1000</v>
+      </c>
+      <c r="B83">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="2"/>
+        <v>1.24</v>
+      </c>
+      <c r="E83">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" si="3"/>
+        <v>5.0909090909090904E-3</v>
+      </c>
+      <c r="H83">
+        <v>1.24</v>
+      </c>
+      <c r="I83">
+        <v>5.5999999999999999E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Geant_simulation/data/detector_efficiency/calib s13360-6050pe.xlsx
+++ b/Geant_simulation/data/detector_efficiency/calib s13360-6050pe.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="v1" sheetId="1" r:id="rId1"/>
     <sheet name="v2" sheetId="2" r:id="rId2"/>
+    <sheet name="PMT_R6041_506MOD" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>x pix</t>
   </si>
@@ -63,6 +64,15 @@
   </si>
   <si>
     <t>PDE 46V, Overvoltage=3.6 Right</t>
+  </si>
+  <si>
+    <t>nm</t>
+  </si>
+  <si>
+    <t>QE</t>
+  </si>
+  <si>
+    <t>eV</t>
   </si>
 </sst>
 </file>
@@ -326,11 +336,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="444327304"/>
-        <c:axId val="444327696"/>
+        <c:axId val="412397504"/>
+        <c:axId val="412490936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="444327304"/>
+        <c:axId val="412397504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -387,12 +397,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444327696"/>
+        <c:crossAx val="412490936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="444327696"/>
+        <c:axId val="412490936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -449,7 +459,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444327304"/>
+        <c:crossAx val="412397504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -675,11 +685,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="444328480"/>
-        <c:axId val="571200104"/>
+        <c:axId val="412378576"/>
+        <c:axId val="412586976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="444328480"/>
+        <c:axId val="412378576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,12 +746,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="571200104"/>
+        <c:crossAx val="412586976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="571200104"/>
+        <c:axId val="412586976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,7 +808,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444328480"/>
+        <c:crossAx val="412378576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -862,7 +872,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1317,11 +1326,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="571200888"/>
-        <c:axId val="571201280"/>
+        <c:axId val="412589584"/>
+        <c:axId val="412743792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="571200888"/>
+        <c:axId val="412589584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,12 +1387,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="571201280"/>
+        <c:crossAx val="412743792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="571201280"/>
+        <c:axId val="412743792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1440,7 +1449,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="571200888"/>
+        <c:crossAx val="412589584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1504,7 +1513,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1977,11 +1985,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="571202064"/>
-        <c:axId val="571202456"/>
+        <c:axId val="15782856"/>
+        <c:axId val="15783248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="571202064"/>
+        <c:axId val="15782856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2038,12 +2046,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="571202456"/>
+        <c:crossAx val="15783248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="571202456"/>
+        <c:axId val="15783248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,7 +2108,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="571202064"/>
+        <c:crossAx val="15782856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4791,13 +4799,13 @@
       <selection activeCell="G49" sqref="G49:G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4811,7 +4819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>301</v>
       </c>
@@ -4825,7 +4833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>406</v>
       </c>
@@ -4840,7 +4848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>512</v>
       </c>
@@ -4854,7 +4862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>617</v>
       </c>
@@ -4868,7 +4876,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>723</v>
       </c>
@@ -4876,7 +4884,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>828</v>
       </c>
@@ -4884,7 +4892,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>934</v>
       </c>
@@ -4892,7 +4900,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -4906,7 +4914,7 @@
         <v>-3.4104000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -4920,7 +4928,7 @@
         <v>5.9299999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -4952,7 +4960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>322</v>
       </c>
@@ -4982,7 +4990,7 @@
         <v>2.3416999999999993E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>322</v>
       </c>
@@ -5012,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>324</v>
       </c>
@@ -5042,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>325</v>
       </c>
@@ -5072,7 +5080,7 @@
         <v>2.7568000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>327</v>
       </c>
@@ -5102,7 +5110,7 @@
         <v>3.1718999999999997E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>328</v>
       </c>
@@ -5132,7 +5140,7 @@
         <v>3.7055999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>329</v>
       </c>
@@ -5162,7 +5170,7 @@
         <v>4.3579E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>330</v>
       </c>
@@ -5192,7 +5200,7 @@
         <v>5.0695000000000004E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>332</v>
       </c>
@@ -5222,7 +5230,7 @@
         <v>5.6625000000000009E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>334</v>
       </c>
@@ -5252,7 +5260,7 @@
         <v>6.3147999999999996E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>336</v>
       </c>
@@ -5282,7 +5290,7 @@
         <v>7.4415000000000009E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>339</v>
       </c>
@@ -5312,7 +5320,7 @@
         <v>8.4496000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>340</v>
       </c>
@@ -5342,7 +5350,7 @@
         <v>9.5763000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>342</v>
       </c>
@@ -5372,7 +5380,7 @@
         <v>0.108809</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>346</v>
       </c>
@@ -5402,7 +5410,7 @@
         <v>0.127192</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>348</v>
       </c>
@@ -5432,7 +5440,7 @@
         <v>0.14260999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>350</v>
       </c>
@@ -5462,7 +5470,7 @@
         <v>0.16632999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>354</v>
       </c>
@@ -5492,7 +5500,7 @@
         <v>0.17937600000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>359</v>
       </c>
@@ -5522,7 +5530,7 @@
         <v>0.19479400000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>368</v>
       </c>
@@ -5552,7 +5560,7 @@
         <v>0.21376999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>375</v>
       </c>
@@ -5582,7 +5590,7 @@
         <v>0.23155999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>381</v>
       </c>
@@ -5612,7 +5620,7 @@
         <v>0.25943100000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>389</v>
       </c>
@@ -5642,7 +5650,7 @@
         <v>0.27544200000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>396</v>
       </c>
@@ -5672,7 +5680,7 @@
         <v>0.29738300000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>406</v>
       </c>
@@ -5702,7 +5710,7 @@
         <v>0.319324</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>413</v>
       </c>
@@ -5732,7 +5740,7 @@
         <v>0.33592799999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>422</v>
       </c>
@@ -5762,7 +5770,7 @@
         <v>0.35312499999999991</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>438</v>
       </c>
@@ -5792,7 +5800,7 @@
         <v>0.36320599999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>455</v>
       </c>
@@ -5822,7 +5830,7 @@
         <v>0.37269399999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>466</v>
       </c>
@@ -5852,7 +5860,7 @@
         <v>0.387519</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>484</v>
       </c>
@@ -5882,7 +5890,7 @@
         <v>0.39819299999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>501</v>
       </c>
@@ -5912,7 +5920,7 @@
         <v>0.40234399999999992</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>515</v>
       </c>
@@ -5942,7 +5950,7 @@
         <v>0.39997199999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>527</v>
       </c>
@@ -5972,7 +5980,7 @@
         <v>0.39285599999999993</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>544</v>
       </c>
@@ -6002,7 +6010,7 @@
         <v>0.38514699999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>555</v>
       </c>
@@ -6032,7 +6040,7 @@
         <v>0.37269399999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>563</v>
       </c>
@@ -6062,7 +6070,7 @@
         <v>0.35727599999999993</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>574</v>
       </c>
@@ -6092,7 +6100,7 @@
         <v>0.34126499999999993</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>584</v>
       </c>
@@ -6122,7 +6130,7 @@
         <v>0.33296299999999995</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>592</v>
       </c>
@@ -6152,7 +6160,7 @@
         <v>0.31695200000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>607</v>
       </c>
@@ -6182,7 +6190,7 @@
         <v>0.30687099999999995</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>617</v>
       </c>
@@ -6212,7 +6220,7 @@
         <v>0.29323200000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>630</v>
       </c>
@@ -6242,7 +6250,7 @@
         <v>0.27484900000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>639</v>
       </c>
@@ -6272,7 +6280,7 @@
         <v>0.26417499999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>646</v>
       </c>
@@ -6302,7 +6310,7 @@
         <v>0.24934999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>652</v>
       </c>
@@ -6332,7 +6340,7 @@
         <v>0.240455</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>665</v>
       </c>
@@ -6362,7 +6370,7 @@
         <v>0.22859499999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>679</v>
       </c>
@@ -6392,7 +6400,7 @@
         <v>0.219107</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>695</v>
       </c>
@@ -6422,7 +6430,7 @@
         <v>0.204875</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>713</v>
       </c>
@@ -6452,7 +6460,7 @@
         <v>0.19005</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>731</v>
       </c>
@@ -6482,7 +6490,7 @@
         <v>0.17641100000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>745</v>
       </c>
@@ -6512,7 +6520,7 @@
         <v>0.158028</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>772</v>
       </c>
@@ -6542,7 +6550,7 @@
         <v>0.14735400000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>793</v>
       </c>
@@ -6572,7 +6580,7 @@
         <v>0.13490100000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>823</v>
       </c>
@@ -6602,7 +6610,7 @@
         <v>0.11592500000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>845</v>
       </c>
@@ -6632,7 +6640,7 @@
         <v>0.102879</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>864</v>
       </c>
@@ -6662,7 +6670,7 @@
         <v>8.4496000000000002E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>885</v>
       </c>
@@ -6692,7 +6700,7 @@
         <v>7.3821999999999999E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>910</v>
       </c>
@@ -6722,7 +6730,7 @@
         <v>6.1962000000000003E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>924</v>
       </c>
@@ -6752,7 +6760,7 @@
         <v>5.4845999999999992E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>932</v>
       </c>
@@ -6782,7 +6790,7 @@
         <v>4.4764999999999999E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L85" s="2">
         <v>1.3918990896881001</v>
       </c>
@@ -6790,7 +6798,7 @@
         <v>3.9427999999999998E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L86" s="2">
         <v>1.3801495702674509</v>
       </c>
@@ -6798,7 +6806,7 @@
         <v>3.4090999999999996E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L87" s="2">
         <v>1.37</v>
       </c>
@@ -6806,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L88" s="2">
         <v>1</v>
       </c>
@@ -6825,18 +6833,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -6853,7 +6861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>200</v>
       </c>
@@ -6878,7 +6886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>210</v>
       </c>
@@ -6903,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>220</v>
       </c>
@@ -6928,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>230</v>
       </c>
@@ -6953,7 +6961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>240</v>
       </c>
@@ -6978,7 +6986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>250</v>
       </c>
@@ -7003,7 +7011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>260</v>
       </c>
@@ -7028,7 +7036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>270</v>
       </c>
@@ -7053,7 +7061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>280</v>
       </c>
@@ -7078,7 +7086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>290</v>
       </c>
@@ -7103,7 +7111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>300</v>
       </c>
@@ -7128,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>310</v>
       </c>
@@ -7153,7 +7161,7 @@
         <v>1.652E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>320</v>
       </c>
@@ -7178,7 +7186,7 @@
         <v>4.1300000000000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>330</v>
       </c>
@@ -7203,7 +7211,7 @@
         <v>9.7739999999999994E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>340</v>
       </c>
@@ -7228,7 +7236,7 @@
         <v>0.19686000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>350</v>
       </c>
@@ -7253,7 +7261,7 @@
         <v>0.29047000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>360</v>
       </c>
@@ -7278,7 +7286,7 @@
         <v>0.33727000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>370</v>
       </c>
@@ -7303,7 +7311,7 @@
         <v>0.37857000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>380</v>
       </c>
@@ -7328,7 +7336,7 @@
         <v>0.43087999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>390</v>
       </c>
@@ -7353,7 +7361,7 @@
         <v>0.46392</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>400</v>
       </c>
@@ -7378,7 +7386,7 @@
         <v>0.49008000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>410</v>
       </c>
@@ -7403,7 +7411,7 @@
         <v>0.50934999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>420</v>
       </c>
@@ -7428,7 +7436,7 @@
         <v>0.52310999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>430</v>
       </c>
@@ -7453,7 +7461,7 @@
         <v>0.53688000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>440</v>
       </c>
@@ -7478,7 +7486,7 @@
         <v>0.54376000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>450</v>
       </c>
@@ -7503,7 +7511,7 @@
         <v>0.54788999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>460</v>
       </c>
@@ -7528,7 +7536,7 @@
         <v>0.5534</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>470</v>
       </c>
@@ -7553,7 +7561,7 @@
         <v>0.55064999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>480</v>
       </c>
@@ -7578,7 +7586,7 @@
         <v>0.54652000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>490</v>
       </c>
@@ -7603,7 +7611,7 @@
         <v>0.54100999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>500</v>
       </c>
@@ -7628,7 +7636,7 @@
         <v>0.53274999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>510</v>
       </c>
@@ -7653,7 +7661,7 @@
         <v>0.52036000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>520</v>
       </c>
@@ -7678,7 +7686,7 @@
         <v>0.50522</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>530</v>
       </c>
@@ -7703,7 +7711,7 @@
         <v>0.48870000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>540</v>
       </c>
@@ -7728,7 +7736,7 @@
         <v>0.47217999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>550</v>
       </c>
@@ -7753,7 +7761,7 @@
         <v>0.45290999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>560</v>
       </c>
@@ -7778,7 +7786,7 @@
         <v>0.43639</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>570</v>
       </c>
@@ -7803,7 +7811,7 @@
         <v>0.41698000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>580</v>
       </c>
@@ -7828,7 +7836,7 @@
         <v>0.39784000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>590</v>
       </c>
@@ -7853,7 +7861,7 @@
         <v>0.37857000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>600</v>
       </c>
@@ -7878,7 +7886,7 @@
         <v>0.36066999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>610</v>
       </c>
@@ -7903,7 +7911,7 @@
         <v>0.34827999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>620</v>
       </c>
@@ -7928,7 +7936,7 @@
         <v>0.33039000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>630</v>
       </c>
@@ -7953,7 +7961,7 @@
         <v>0.30836000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>640</v>
       </c>
@@ -7978,7 +7986,7 @@
         <v>0.28909000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>650</v>
       </c>
@@ -8003,7 +8011,7 @@
         <v>0.27395000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>660</v>
       </c>
@@ -8028,7 +8036,7 @@
         <v>0.26018000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>670</v>
       </c>
@@ -8053,7 +8061,7 @@
         <v>0.24504000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>680</v>
       </c>
@@ -8078,7 +8086,7 @@
         <v>0.23265</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>690</v>
       </c>
@@ -8103,7 +8111,7 @@
         <v>0.22026000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>700</v>
       </c>
@@ -8128,7 +8136,7 @@
         <v>0.20649000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>710</v>
       </c>
@@ -8153,7 +8161,7 @@
         <v>0.19822999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>720</v>
       </c>
@@ -8178,7 +8186,7 @@
         <v>0.18653</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>730</v>
       </c>
@@ -8203,7 +8211,7 @@
         <v>0.17621000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>740</v>
       </c>
@@ -8228,7 +8236,7 @@
         <v>0.16519</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>750</v>
       </c>
@@ -8253,7 +8261,7 @@
         <v>0.15556</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>760</v>
       </c>
@@ -8278,7 +8286,7 @@
         <v>0.14729999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>770</v>
       </c>
@@ -8303,7 +8311,7 @@
         <v>0.13766</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>780</v>
       </c>
@@ -8328,7 +8336,7 @@
         <v>0.12665000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>790</v>
       </c>
@@ -8353,7 +8361,7 @@
         <v>0.11977</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>800</v>
       </c>
@@ -8378,7 +8386,7 @@
         <v>0.11151</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>810</v>
       </c>
@@ -8403,7 +8411,7 @@
         <v>0.10462</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>820</v>
       </c>
@@ -8428,7 +8436,7 @@
         <v>9.912E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>830</v>
       </c>
@@ -8453,7 +8461,7 @@
         <v>8.9480000000000004E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>840</v>
       </c>
@@ -8478,7 +8486,7 @@
         <v>8.2600000000000007E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>850</v>
       </c>
@@ -8503,7 +8511,7 @@
         <v>7.7090000000000006E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>860</v>
       </c>
@@ -8528,7 +8536,7 @@
         <v>7.0209999999999995E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>870</v>
       </c>
@@ -8553,7 +8561,7 @@
         <v>6.4699999999999994E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>880</v>
       </c>
@@ -8578,7 +8586,7 @@
         <v>5.919E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>890</v>
       </c>
@@ -8603,7 +8611,7 @@
         <v>5.2310000000000002E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>900</v>
       </c>
@@ -8628,7 +8636,7 @@
         <v>4.8180000000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>910</v>
       </c>
@@ -8653,7 +8661,7 @@
         <v>4.2659999999999997E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>920</v>
       </c>
@@ -8678,7 +8686,7 @@
         <v>3.7819999999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>930</v>
       </c>
@@ -8703,7 +8711,7 @@
         <v>3.3169999999999998E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>940</v>
       </c>
@@ -8728,7 +8736,7 @@
         <v>2.8719999999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>950</v>
       </c>
@@ -8753,7 +8761,7 @@
         <v>2.445E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>960</v>
       </c>
@@ -8778,7 +8786,7 @@
         <v>2.036E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>970</v>
       </c>
@@ -8803,7 +8811,7 @@
         <v>1.643E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>980</v>
       </c>
@@ -8828,7 +8836,7 @@
         <v>1.2670000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>990</v>
       </c>
@@ -8853,7 +8861,7 @@
         <v>9.0600000000000003E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1000</v>
       </c>
@@ -8876,6 +8884,513 @@
       </c>
       <c r="I83">
         <v>5.5999999999999999E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>150</v>
+      </c>
+      <c r="B2" s="2">
+        <f>1240/A2</f>
+        <v>8.2666666666666675</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>160</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B41" si="0">1240/A3</f>
+        <v>7.75</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.181E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>170</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>7.2941176470588234</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6.8529999999999994E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>180</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>6.8888888888888893</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.13972999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>190</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>6.5263157894736841</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.19313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>200</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.20648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>210</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>5.9047619047619051</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.21537999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>220</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>5.6363636363636367</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.2225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>230</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>5.3913043478260869</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.23941000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>240</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.25275999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>250</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>4.96</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.26789000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>260</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7692307692307692</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.29726000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>280</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4285714285714288</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.34532000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>300</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1333333333333337</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.37024000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>320.18691999999999</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>3.872737837010956</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.38885999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>340.37383</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6430532864409702</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.38601999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>360</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4444444444444446</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.37842999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>380.18691999999999</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2615535537098439</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.36514999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>399.81308000000001</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1014493072612832</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.35187000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>420</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9523809523809526</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.33289999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>440.18691999999999</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8169851116884619</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.30349999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>460.37383</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6934632665805527</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.27124999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>480.56074999999998</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5803189295005886</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.23996000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>500.18691999999999</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
+        <v>2.479073223266214</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.21340000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>520.37383</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3829023069818867</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.17735999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>540</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2962962962962963</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.14132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>560.18691999999999</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2135468639646212</v>
+      </c>
+      <c r="C28" s="2">
+        <v>9.3899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>581.49532999999997</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1324332905648617</v>
+      </c>
+      <c r="C29" s="2">
+        <v>6.5439999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>601.12149999999997</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0628109292380992</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4.4580000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>620</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2.5930000000000002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>640</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9375</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1.2670000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>660</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8787878787878789</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5.2599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>680</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8235294117647058</v>
+      </c>
+      <c r="C34" s="2">
+        <v>9.3212899999999997E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>700</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7714285714285714</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>720</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7222222222222223</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>740</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6756756756756757</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>750</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6533333333333333</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>800</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="0"/>
+        <v>1.55</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>900</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3777777777777778</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1000</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" si="0"/>
+        <v>1.24</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
